--- a/Document/SE_HungLD_ScrapCollector/Category_Price_Quantity_Data_Observations.xlsx
+++ b/Document/SE_HungLD_ScrapCollector/Category_Price_Quantity_Data_Observations.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="207">
   <si>
     <t>Tên địa chỉ/ Tên người thu mua ve chai</t>
-  </si>
-  <si>
-    <t>Số lượng/ khối lượng</t>
   </si>
   <si>
     <t>Giá mua</t>
@@ -53,13 +50,609 @@
   </si>
   <si>
     <t>Lon nước (lon nhôm)</t>
+  </si>
+  <si>
+    <t>Công ty thu mua phế liệu Bảo Minh 
+(https://thumuaphelieugiacao.com.vn/vechai)</t>
+  </si>
+  <si>
+    <t>Đồng phế liệu</t>
+  </si>
+  <si>
+    <t>Nhôm phế liệu</t>
+  </si>
+  <si>
+    <t>inox phế liệu</t>
+  </si>
+  <si>
+    <t>nhựa phế liệu</t>
+  </si>
+  <si>
+    <t>sắt phế liệu</t>
+  </si>
+  <si>
+    <t>tôn phế liệu</t>
+  </si>
+  <si>
+    <t>vải phế liệu</t>
+  </si>
+  <si>
+    <t>giấy phế liệu</t>
+  </si>
+  <si>
+    <t>từ 105.000 – 295.000 đ</t>
+  </si>
+  <si>
+    <t>từ 22.000 – 85.000 đ</t>
+  </si>
+  <si>
+    <t>từ 12.000 – 52.000 đ</t>
+  </si>
+  <si>
+    <t>từ 8.500 – 45.000 đ</t>
+  </si>
+  <si>
+    <t>từ 6.000 – 19.000 đ</t>
+  </si>
+  <si>
+    <t>từ 5.000 – 7.500 đ</t>
+  </si>
+  <si>
+    <t>Số lượng/ khối lượng (kg)</t>
+  </si>
+  <si>
+    <t>từ 2.500 – 5.000 đ</t>
+  </si>
+  <si>
+    <t>14/02/2020</t>
+  </si>
+  <si>
+    <t>từ 15.000 – 140.000 đ</t>
+  </si>
+  <si>
+    <t>Đồng cáp</t>
+  </si>
+  <si>
+    <t>Đồng đỏ</t>
+  </si>
+  <si>
+    <t>đồng vàng</t>
+  </si>
+  <si>
+    <t>đồng cháy</t>
+  </si>
+  <si>
+    <t>sắt đặc</t>
+  </si>
+  <si>
+    <t>sắt vụn</t>
+  </si>
+  <si>
+    <t>sắt gỉ sét</t>
+  </si>
+  <si>
+    <t>Ống nhựa</t>
+  </si>
+  <si>
+    <t>Giáy carton</t>
+  </si>
+  <si>
+    <t>giấy photo</t>
+  </si>
+  <si>
+    <t>Inox loại 201</t>
+  </si>
+  <si>
+    <t>Inox loại 304</t>
+  </si>
+  <si>
+    <t>Nhôm đặc nguyên chất</t>
+  </si>
+  <si>
+    <t>Hợp kim nhôm</t>
+  </si>
+  <si>
+    <t>Vụn nhôm</t>
+  </si>
+  <si>
+    <t>Công ty thu mua phế liệu giá cao Thịnh Phát</t>
+  </si>
+  <si>
+    <t>135.000 - 250.000</t>
+  </si>
+  <si>
+    <t>115.000 - 200.000</t>
+  </si>
+  <si>
+    <t>95.000 - 180.000</t>
+  </si>
+  <si>
+    <t>115.000 - 175.000</t>
+  </si>
+  <si>
+    <t>12.000 - 18.000</t>
+  </si>
+  <si>
+    <t>10.000 - 13.000</t>
+  </si>
+  <si>
+    <t>9.000 - 13.000</t>
+  </si>
+  <si>
+    <t>12.000 - 15.000</t>
+  </si>
+  <si>
+    <t>5.000 - 13.000</t>
+  </si>
+  <si>
+    <t>13.000 - 14.000</t>
+  </si>
+  <si>
+    <t>15.000 - 30.000</t>
+  </si>
+  <si>
+    <t>35.000 - 65.000</t>
+  </si>
+  <si>
+    <t>55.000 - 85.000</t>
+  </si>
+  <si>
+    <t>45.000 - 70.000</t>
+  </si>
+  <si>
+    <t>25.000 - 55.000</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Phế Liệu Việt Đức 
+0971519789 Anh Phong hoặc 0944566123 Anh Nghĩa</t>
+  </si>
+  <si>
+    <t>nhôm phế liệu</t>
+  </si>
+  <si>
+    <t>đồng phế liệu</t>
+  </si>
+  <si>
+    <t>bao bì phế liệu</t>
+  </si>
+  <si>
+    <t>hợp kim phế liệu</t>
+  </si>
+  <si>
+    <t>15/02/2020</t>
+  </si>
+  <si>
+    <t>từ 12.000 – 45.200 đồng</t>
+  </si>
+  <si>
+    <t>từ 22.000 – 60.500 đồng</t>
+  </si>
+  <si>
+    <t>từ 90.000 – 255.000 đồng</t>
+  </si>
+  <si>
+    <t>6.000 – 20.000 đồng</t>
+  </si>
+  <si>
+    <t>từ 75.000 – 165.500 đồng</t>
+  </si>
+  <si>
+    <t>từ 1.000 – 5.000 đồng</t>
+  </si>
+  <si>
+    <t>từ 1.000 – 45.000 đồng</t>
+  </si>
+  <si>
+    <t>từ 380.000 – 590.000 đồng</t>
+  </si>
+  <si>
+    <t>Phế liệu</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Đơn giá (VNĐ/kg)</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Đồng</t>
+  </si>
+  <si>
+    <t>Giá Đồng cáp</t>
+  </si>
+  <si>
+    <t>90.000 – 255.000</t>
+  </si>
+  <si>
+    <t>Giá Đồng đỏ</t>
+  </si>
+  <si>
+    <t>90.000 – 187.000</t>
+  </si>
+  <si>
+    <t>Giá Đồng vàng</t>
+  </si>
+  <si>
+    <t>65.000 – 155.000</t>
+  </si>
+  <si>
+    <t>Giá Mạt đồng vàng</t>
+  </si>
+  <si>
+    <t>55.000 – 115.000</t>
+  </si>
+  <si>
+    <t>Giá Đồng cháy</t>
+  </si>
+  <si>
+    <t>100.000 – 155.000</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Sắt</t>
+  </si>
+  <si>
+    <t>Giá Sắt đặc</t>
+  </si>
+  <si>
+    <t>11.000 – 19.000</t>
+  </si>
+  <si>
+    <t>Giá Sắt vụn</t>
+  </si>
+  <si>
+    <t>6.500 – 15.000</t>
+  </si>
+  <si>
+    <t>Giá Sắt gỉ sét</t>
+  </si>
+  <si>
+    <t>6.000 – 12.000</t>
+  </si>
+  <si>
+    <t>Giá Bazo sắt</t>
+  </si>
+  <si>
+    <t>6.000 – 10.000</t>
+  </si>
+  <si>
+    <t>Giá Bã sắt</t>
+  </si>
+  <si>
+    <t>Giá Sắt công trình</t>
+  </si>
+  <si>
+    <t>Giá Dây sắt thép</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Chì</t>
+  </si>
+  <si>
+    <t>Giá Chì thiếc cục, chì thiếc dẻo, thiếc cuộn, thiếc cây</t>
+  </si>
+  <si>
+    <t>365.500 – 515.000</t>
+  </si>
+  <si>
+    <t>Giá Chì bình, chì lưới, chì XQuang</t>
+  </si>
+  <si>
+    <t>30.000 – 60.000</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Bao bì</t>
+  </si>
+  <si>
+    <t>Giá Bao Jumbo</t>
+  </si>
+  <si>
+    <t>75.000 (bao)</t>
+  </si>
+  <si>
+    <t>Giá Bao nhựa</t>
+  </si>
+  <si>
+    <t>95.000 – 165.500 (bao)</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Nhựa</t>
+  </si>
+  <si>
+    <t>Giá nhựa ABS</t>
+  </si>
+  <si>
+    <t>25.000 – 45.000</t>
+  </si>
+  <si>
+    <t>Giá nhựa PP</t>
+  </si>
+  <si>
+    <t>15.000 – 25.500</t>
+  </si>
+  <si>
+    <t>Giá nhựa PVC</t>
+  </si>
+  <si>
+    <t>8.500 – 25.000</t>
+  </si>
+  <si>
+    <t>Giá nhựa HI</t>
+  </si>
+  <si>
+    <t>15.500 – 30.500</t>
+  </si>
+  <si>
+    <t>Giá Ống nhựa</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Giấy</t>
+  </si>
+  <si>
+    <t>Giá Giấy carton</t>
+  </si>
+  <si>
+    <t>1.000 – 5.000</t>
+  </si>
+  <si>
+    <t>Giá Giấy báo</t>
+  </si>
+  <si>
+    <t>Giá Giấy photo</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Kẽm</t>
+  </si>
+  <si>
+    <t>Giá Kẽm IN</t>
+  </si>
+  <si>
+    <t>35.500 – 65.500</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Inox</t>
+  </si>
+  <si>
+    <t>Giá inoxLoại 201, 430, 510, 630</t>
+  </si>
+  <si>
+    <t>10.000 – 20.500</t>
+  </si>
+  <si>
+    <t>Giá inox Loại 304</t>
+  </si>
+  <si>
+    <t>31.000 – 45.500</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Nhôm</t>
+  </si>
+  <si>
+    <t>Giá Nhôm loại 1 (nhôm đặc nguyên chất)</t>
+  </si>
+  <si>
+    <t>45.000 – 65.500</t>
+  </si>
+  <si>
+    <t>Giá Nhôm loại 2 (hợp kim nhôm)</t>
+  </si>
+  <si>
+    <t>40.000 – 55.000</t>
+  </si>
+  <si>
+    <t>Giá Nhôm loại 3 (vụn nhôm, mạt nhôm)</t>
+  </si>
+  <si>
+    <t>22.000 – 35.500</t>
+  </si>
+  <si>
+    <t>Giá Bột nhôm</t>
+  </si>
+  <si>
+    <t>Giá Nhôm dẻo</t>
+  </si>
+  <si>
+    <t>30.000 – 39.500</t>
+  </si>
+  <si>
+    <t>Giá Nhôm máy</t>
+  </si>
+  <si>
+    <t>20.500 – 37.500</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Hợp kim</t>
+  </si>
+  <si>
+    <t>Giá Mũi khoan, Dao phay, Dao chặt, Bánh cán, Khuôn hợp kim, carbay</t>
+  </si>
+  <si>
+    <t>380.000 – 590.000</t>
+  </si>
+  <si>
+    <t>Giá Thiếc</t>
+  </si>
+  <si>
+    <t>310.000 – 680.000</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Nilon</t>
+  </si>
+  <si>
+    <t>Giá Nilon sữa</t>
+  </si>
+  <si>
+    <t>9.500 – 14.500</t>
+  </si>
+  <si>
+    <t>Giá Nilon dẻo</t>
+  </si>
+  <si>
+    <t>15.500 – 25.500</t>
+  </si>
+  <si>
+    <t>Giá Nilon xốp</t>
+  </si>
+  <si>
+    <t>5.500 – 12.500</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Thùng phi</t>
+  </si>
+  <si>
+    <t>Giá Thùng phuy Sắt</t>
+  </si>
+  <si>
+    <t>105.500 – 130.500</t>
+  </si>
+  <si>
+    <t>Giá thùng phuy Nhựa</t>
+  </si>
+  <si>
+    <t>105.500 – 155.500</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Pallet</t>
+  </si>
+  <si>
+    <t>Giá Palet Nhựa</t>
+  </si>
+  <si>
+    <t>95.500 – 195.500</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu Niken</t>
+  </si>
+  <si>
+    <t>Giá Các loại</t>
+  </si>
+  <si>
+    <t>150.500 – 315.000</t>
+  </si>
+  <si>
+    <t>Giá Phế Liệu bo mach điện tử</t>
+  </si>
+  <si>
+    <t>Giá máy móc các loại</t>
+  </si>
+  <si>
+    <t>305.000 – 1.000.000</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Giá tiền</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t> Đồng vàng</t>
+  </si>
+  <si>
+    <t>Sắt</t>
+  </si>
+  <si>
+    <t>7.000 – 8.000</t>
+  </si>
+  <si>
+    <t>Nhôm</t>
+  </si>
+  <si>
+    <t>30.000 – 35.000</t>
+  </si>
+  <si>
+    <t>Inox</t>
+  </si>
+  <si>
+    <t>27.000 – 30.000</t>
+  </si>
+  <si>
+    <t>Báo chí, giấy photo</t>
+  </si>
+  <si>
+    <t>8.000 – 10.000</t>
+  </si>
+  <si>
+    <t>Thùng phi</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>    75.000 – 145.000</t>
+  </si>
+  <si>
+    <t>Carton</t>
+  </si>
+  <si>
+    <t>4.500 – 5.500</t>
+  </si>
+  <si>
+    <t>Nhựa ABS</t>
+  </si>
+  <si>
+    <t>15.000 – 30.000</t>
+  </si>
+  <si>
+    <t>Nhựa PVC</t>
+  </si>
+  <si>
+    <t>7.000 – 15.000</t>
+  </si>
+  <si>
+    <t>Nhựa PP</t>
+  </si>
+  <si>
+    <t>10.000 – 18.000</t>
+  </si>
+  <si>
+    <t>Nilon</t>
+  </si>
+  <si>
+    <t>12.000 – 18.000</t>
+  </si>
+  <si>
+    <t>Pallet nhựa, gỗ</t>
+  </si>
+  <si>
+    <t>pallet</t>
+  </si>
+  <si>
+    <t>95.000 – 190.000</t>
+  </si>
+  <si>
+    <t>Hợp kim</t>
+  </si>
+  <si>
+    <t>150.000 – 250.000</t>
+  </si>
+  <si>
+    <t>Vải vụn</t>
+  </si>
+  <si>
+    <t>2.000 – 10.000</t>
+  </si>
+  <si>
+    <t>Cao su, lốp xe cũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG TY TNHH PHẾ LIỆU HÙNG PHÁT
+Địa chỉ: 48 Đường số 18, Phường Bình Hưng Hoà, Quận Bình Tân, TP Hồ Chí Minh
+Email: sales@phelieuhungphat.vn
+Điện thoại: 09340.999.39 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +675,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +696,20 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF09330"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92EFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -148,28 +761,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -451,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,8 +1144,10 @@
     <col min="1" max="1" width="48.109375" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -471,118 +1155,1286 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="10">
+        <v>25000</v>
+      </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="E47" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53" s="28">
+        <v>125</v>
+      </c>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="28">
+        <v>2</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="28">
+        <v>135</v>
+      </c>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+      <c r="B55" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="28">
+        <v>3</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="28">
+        <v>90</v>
+      </c>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="28">
+        <v>4</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="26"/>
+      <c r="B57" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="28">
+        <v>5</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="28">
+        <v>6</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="28">
+        <v>7</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="F60" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="28">
+        <v>9</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="E62" s="28">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F62" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="25">
+        <v>9500</v>
+      </c>
+      <c r="E63" s="28">
+        <v>11</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="E64" s="28">
+        <v>12</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I64" s="28"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="28">
+        <v>13</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="I65" s="28"/>
+    </row>
+    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="26"/>
+      <c r="B66" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="28">
+        <v>14</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I66" s="28"/>
+    </row>
+    <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="28">
+        <v>15</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I67" s="28"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="28">
+        <v>16</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" s="28"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="28">
+        <v>17</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="26"/>
+      <c r="B70" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="26"/>
+      <c r="B71" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="26"/>
+      <c r="B72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="27"/>
+      <c r="B75" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="27"/>
+      <c r="B76" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="27"/>
+      <c r="B79" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="26"/>
+      <c r="B81" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="26"/>
+      <c r="B82" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="26"/>
+      <c r="B83" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="26"/>
+      <c r="B84" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+      <c r="B85" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+      <c r="B89" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="26"/>
+      <c r="B90" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="17">
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A47:B50"/>
+    <mergeCell ref="E47:G50"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
